--- a/ReportDocument/HaiSon/ReportStatus.xlsx
+++ b/ReportDocument/HaiSon/ReportStatus.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
   <si>
     <t>Excel</t>
   </si>
@@ -27,16 +27,16 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>Sổ đăng kí chứng từ kho</t>
+    <t>doing</t>
   </si>
   <si>
-    <t>doing</t>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,17 +363,110 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
